--- a/OfficialMC2012/StealthSusy/StealthSusyRequest_clseitz.xlsx
+++ b/OfficialMC2012/StealthSusy/StealthSusyRequest_clseitz.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25360" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="0" windowWidth="25360" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -333,72 +333,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color indexed="8"/>
         <name val="Helvetica Neue"/>
@@ -751,26 +685,92 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:K13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:K13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K13"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Sb -&gt; b b b, Requester Claudia Seitz" dataDxfId="15"/>
-    <tableColumn id="2" name="Name of generator fragment " dataDxfId="14"/>
-    <tableColumn id="3" name="EOS" dataDxfId="13"/>
-    <tableColumn id="4" name="events" dataDxfId="12"/>
-    <tableColumn id="5" name="Match. Eff." dataDxfId="11"/>
-    <tableColumn id="6" name="X-sec [pb]" dataDxfId="10"/>
-    <tableColumn id="7" name="Gen evts" dataDxfId="9"/>
-    <tableColumn id="8" name="CPUtime" dataDxfId="8"/>
-    <tableColumn id="9" name="size(B)" dataDxfId="7"/>
-    <tableColumn id="10" name="CPU time/event [s]" dataDxfId="6"/>
-    <tableColumn id="11" name="size/event [kB]" dataDxfId="5"/>
+    <tableColumn id="1" name="Sb -&gt; b b b, Requester Claudia Seitz" dataDxfId="10"/>
+    <tableColumn id="2" name="Name of generator fragment " dataDxfId="9"/>
+    <tableColumn id="3" name="EOS" dataDxfId="8"/>
+    <tableColumn id="4" name="events" dataDxfId="7"/>
+    <tableColumn id="5" name="Match. Eff." dataDxfId="6"/>
+    <tableColumn id="6" name="X-sec [pb]" dataDxfId="5"/>
+    <tableColumn id="7" name="Gen evts" dataDxfId="4"/>
+    <tableColumn id="8" name="CPUtime" dataDxfId="3"/>
+    <tableColumn id="9" name="size(B)" dataDxfId="2"/>
+    <tableColumn id="10" name="CPU time/event [s]" dataDxfId="1"/>
+    <tableColumn id="11" name="size/event [kB]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1179,11 +1179,11 @@
         <v>34696521</v>
       </c>
       <c r="J2" s="10">
-        <f>H2/G2</f>
+        <f t="shared" ref="J2:J12" si="0">H2/G2</f>
         <v>71.947666666666663</v>
       </c>
       <c r="K2" s="11">
-        <f>I2/G2*1/1024</f>
+        <f t="shared" ref="K2:K12" si="1">I2/G2*1/1024</f>
         <v>1129.44404296875</v>
       </c>
     </row>
@@ -1214,11 +1214,11 @@
         <v>33679092</v>
       </c>
       <c r="J3" s="7">
-        <f>H3/G3</f>
+        <f t="shared" si="0"/>
         <v>65.881666666666675</v>
       </c>
       <c r="K3" s="6">
-        <f>I3/G3*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1096.3246093749999</v>
       </c>
     </row>
@@ -1249,11 +1249,11 @@
         <v>34980243</v>
       </c>
       <c r="J4" s="7">
-        <f>H4/G4</f>
+        <f t="shared" si="0"/>
         <v>74.721333333333334</v>
       </c>
       <c r="K4" s="6">
-        <f>I4/G4*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1138.6797851562501</v>
       </c>
     </row>
@@ -1284,11 +1284,11 @@
         <v>39362427</v>
       </c>
       <c r="J5" s="7">
-        <f>H5/G5</f>
+        <f t="shared" si="0"/>
         <v>88.501666666666679</v>
       </c>
       <c r="K5" s="6">
-        <f>I5/G5*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1281.3290039062499</v>
       </c>
     </row>
@@ -1319,11 +1319,11 @@
         <v>40069862</v>
       </c>
       <c r="J6" s="7">
-        <f>H6/G6</f>
+        <f t="shared" si="0"/>
         <v>84.070666666666668</v>
       </c>
       <c r="K6" s="6">
-        <f>I6/G6*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1304.3574869791667</v>
       </c>
     </row>
@@ -1354,11 +1354,11 @@
         <v>44062705</v>
       </c>
       <c r="J7" s="7">
-        <f>H7/G7</f>
+        <f t="shared" si="0"/>
         <v>107.06766666666667</v>
       </c>
       <c r="K7" s="6">
-        <f>I7/G7*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1434.3328450520833</v>
       </c>
     </row>
@@ -1389,11 +1389,11 @@
         <v>43731201</v>
       </c>
       <c r="J8" s="7">
-        <f>H8/G8</f>
+        <f t="shared" si="0"/>
         <v>89.933666666666667</v>
       </c>
       <c r="K8" s="6">
-        <f>I8/G8*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1423.54169921875</v>
       </c>
     </row>
@@ -1424,11 +1424,11 @@
         <v>47163091</v>
       </c>
       <c r="J9" s="7">
-        <f>H9/G9</f>
+        <f t="shared" si="0"/>
         <v>113.74266666666668</v>
       </c>
       <c r="K9" s="6">
-        <f>I9/G9*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1535.2568684895834</v>
       </c>
     </row>
@@ -1459,11 +1459,11 @@
         <v>43758737</v>
       </c>
       <c r="J10" s="7">
-        <f>H10/G10</f>
+        <f t="shared" si="0"/>
         <v>112.08133333333333</v>
       </c>
       <c r="K10" s="6">
-        <f>I10/G10*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1424.4380533854167</v>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v>34618380</v>
       </c>
       <c r="J11" s="7">
-        <f>H11/G11</f>
+        <f t="shared" si="0"/>
         <v>124.46166666666666</v>
       </c>
       <c r="K11" s="6">
-        <f>I11/G11*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1126.900390625</v>
       </c>
     </row>
@@ -1529,11 +1529,11 @@
         <v>52188711</v>
       </c>
       <c r="J12" s="7">
-        <f>H12/G12</f>
+        <f t="shared" si="0"/>
         <v>87.88966666666667</v>
       </c>
       <c r="K12" s="6">
-        <f>I12/G12*1/1024</f>
+        <f t="shared" si="1"/>
         <v>1698.85126953125</v>
       </c>
     </row>
@@ -1558,7 +1558,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
